--- a/biology/Zoologie/Hihi_de_Nouvelle-Zélande/Hihi_de_Nouvelle-Zélande.xlsx
+++ b/biology/Zoologie/Hihi_de_Nouvelle-Zélande/Hihi_de_Nouvelle-Zélande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hihi_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Hihi_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notiomystis cincta, Notiomystis · Notiomystidae, Méliphage hihi
 Le Hihi de Nouvelle-Zélande (Notiomystis cincta), anciennement connu en tant que Méliphage hihi, est une espèce d'oiseaux de la famille des Passeriformes, la seule représentante de la famille Notiomystidae et du genre Notiomystis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hihi_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Hihi_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un passereau de taille moyenne. Le mâle a un plumage de couleur noire qui s'étale sur toute la partie avant : la poitrine, les flancs, le dos et la couverture alaire.
 En arrière de son œil, une petite tache blanche comprenant une petite touffe de poils érectiles peut être mise en avant lors de parade nuptiale. Sur ses flancs, le mâle a son plumage noir bordé d'une frange jaune, et son ventre est un gris-brun. La femelle est légèrement différente, son plumage est plus terne et plus brun, elle n'a pas non plus de petite touffe de poils érectiles, et elle possède une large bande alaire blanche.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hihi_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Hihi_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat naturel du Méliphage hihi est constitué de vieilles forêts où l'on trouve de vieux arbres creux.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hihi_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Hihi_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.2, 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.2, 2021) :
 sous-espèce Notiomystis cincta hautura Mathews, 1935 - île de la Petite Barrière
 sous-espèce † Notiomystis cincta cincta (Du Bus de Gisignies, 1839) - île du Nord</t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hihi_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Hihi_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement de nectar, de fruits et d'arthropodes.
 </t>
